--- a/data/gihun/dataset/세종시출산율모델.xlsx
+++ b/data/gihun/dataset/세종시출산율모델.xlsx
@@ -2715,7 +2715,9 @@
         <v>0</v>
       </c>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
@@ -2751,7 +2753,9 @@
         <v>0</v>
       </c>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>9.325000000000001</v>
+      </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
@@ -2787,7 +2791,9 @@
         <v>0</v>
       </c>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9.350000000000001</v>
+      </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
@@ -2823,7 +2829,9 @@
         <v>0</v>
       </c>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>9.375</v>
+      </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
@@ -2859,7 +2867,9 @@
         <v>0</v>
       </c>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.4</v>
+      </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
@@ -2895,7 +2905,9 @@
         <v>0</v>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
@@ -2931,7 +2943,9 @@
         <v>0</v>
       </c>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
@@ -2967,7 +2981,9 @@
         <v>0</v>
       </c>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
@@ -3003,7 +3019,9 @@
         <v>0</v>
       </c>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>9.5</v>
+      </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
@@ -3039,7 +3057,9 @@
         <v>0</v>
       </c>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>9.525</v>
+      </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
@@ -3075,7 +3095,9 @@
         <v>0</v>
       </c>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
@@ -3111,7 +3133,9 @@
         <v>0</v>
       </c>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>9.574999999999999</v>
+      </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
@@ -3147,7 +3171,9 @@
         <v>0</v>
       </c>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>9.6</v>
+      </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
@@ -3183,7 +3209,9 @@
         <v>0</v>
       </c>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>8.799999999999999</v>
+      </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
@@ -3219,7 +3247,9 @@
         <v>0</v>
       </c>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>8</v>
+      </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
@@ -3255,7 +3285,9 @@
         <v>0</v>
       </c>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>7.199999999999999</v>
+      </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
@@ -3291,7 +3323,9 @@
         <v>0</v>
       </c>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>6.4</v>
+      </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
@@ -3327,7 +3361,9 @@
         <v>0</v>
       </c>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>5.6</v>
+      </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
@@ -3363,7 +3399,9 @@
         <v>0</v>
       </c>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>4.8</v>
+      </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
@@ -3399,7 +3437,9 @@
         <v>0</v>
       </c>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>4</v>
+      </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
@@ -3435,7 +3475,9 @@
         <v>0</v>
       </c>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>3.2</v>
+      </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
@@ -3471,7 +3513,9 @@
         <v>0</v>
       </c>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>2.4</v>
+      </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
@@ -3507,7 +3551,9 @@
         <v>0</v>
       </c>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>1.600000000000001</v>
+      </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
@@ -3543,7 +3589,9 @@
         <v>0</v>
       </c>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>0.8000000000000007</v>
+      </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
@@ -10232,7 +10280,9 @@
       <c r="F273" t="n">
         <v>104.96</v>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0.002350029635329472</v>
+      </c>
       <c r="H273" t="n">
         <v>96.90000000000001</v>
       </c>
@@ -10262,7 +10312,9 @@
       <c r="F274" t="n">
         <v>105.45</v>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0.002350029635329472</v>
+      </c>
       <c r="H274" t="n">
         <v>95.8</v>
       </c>
@@ -10292,7 +10344,9 @@
       <c r="F275" t="n">
         <v>106.56</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0.002350029635329472</v>
+      </c>
       <c r="H275" t="n">
         <v>94.2</v>
       </c>
@@ -10322,7 +10376,9 @@
       <c r="F276" t="n">
         <v>107.43</v>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0.002350029635329472</v>
+      </c>
       <c r="H276" t="n">
         <v>93.2</v>
       </c>
@@ -10352,7 +10408,9 @@
       <c r="F277" t="n">
         <v>108.33</v>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0.002350029635329472</v>
+      </c>
       <c r="H277" t="n">
         <v>92.09999999999999</v>
       </c>
@@ -10382,7 +10440,9 @@
       <c r="F278" t="n">
         <v>109.04</v>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0.002350029635329472</v>
+      </c>
       <c r="H278" t="n">
         <v>91.09999999999999</v>
       </c>
@@ -10412,7 +10472,9 @@
       <c r="F279" t="n">
         <v>109.28</v>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0.002350029635329472</v>
+      </c>
       <c r="H279" t="n">
         <v>90.09999999999999</v>
       </c>
@@ -10442,7 +10504,9 @@
       <c r="F280" t="n">
         <v>109.36</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0.002350029635329472</v>
+      </c>
       <c r="H280" t="n">
         <v>88.90000000000001</v>
       </c>
@@ -10472,7 +10536,9 @@
       <c r="F281" t="n">
         <v>109.36</v>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0.002350029635329472</v>
+      </c>
       <c r="H281" t="n">
         <v>87.3</v>
       </c>
@@ -10502,7 +10568,9 @@
       <c r="F282" t="n">
         <v>109.82</v>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0.002350029635329472</v>
+      </c>
       <c r="H282" t="n">
         <v>85.59999999999999</v>
       </c>
@@ -10532,7 +10600,9 @@
       <c r="F283" t="n">
         <v>109.59</v>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0.002350029635329472</v>
+      </c>
       <c r="H283" t="n">
         <v>83.09999999999999</v>
       </c>
@@ -10556,13 +10626,15 @@
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>109.57</v>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0.002350029635329472</v>
+      </c>
       <c r="H284" t="n">
         <v>78.40000000000001</v>
       </c>
@@ -10590,7 +10662,9 @@
       <c r="F285" t="n">
         <v>110.3</v>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0.002350029635329472</v>
+      </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
